--- a/data-raw/table-data/big-numbers.xlsx
+++ b/data-raw/table-data/big-numbers.xlsx
@@ -397,7 +397,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>41%</t>
+          <t>41.0066%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -424,7 +424,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>18.7639%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>18.0786%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>38.9724%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>43.6121%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>38.3532%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>48.0170%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>38.7319%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>28%</t>
+          <t>27.6435%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>41%</t>
+          <t>41.1779%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>100.0000%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>100.0000%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>44.3411%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>52.1749%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>20.0526%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>63.1215%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>44.9639%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>37.5806%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>63.3312%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>17.5230%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>37.5896%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>31.6383%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>48.4176%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13%</t>
+          <t>13.0937%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>45.8695%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.3422%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>19.9263%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>100.0000%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>69.6040%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>29.0661%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>42.0965%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>100.0000%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>33.0663%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>5.5900%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>100.0000%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>23%</t>
+          <t>22.6034%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
